--- a/biology/Zoologie/Chaska_(genre)/Chaska_(genre).xlsx
+++ b/biology/Zoologie/Chaska_(genre)/Chaska_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaska est un genre de coléoptères de la famille des Ptiliidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (26 février 2021)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (26 février 2021) :
 Chaska nawi Darby, 2016</t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Michael Darby, « Studies of Peruvian Ptiliidae (Coleoptera) 5: Chaska nawi, a new genus and species of Acrotrichinae, Acrotrichini », Zootaxa, Magnolia Press (d), vol. 4161, no 1,‎ 2 septembre 2016, p. 133–136 (ISSN 1175-5334 et 1175-5326, OCLC 49030618, PMID 27615917, DOI 10.11646/ZOOTAXA.4161.1.9, lire en ligne)</t>
         </is>
